--- a/Altium/JLCPCB 0603 Capacitors.DbLib.xlsx
+++ b/Altium/JLCPCB 0603 Capacitors.DbLib.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4760" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5270" uniqueCount="264">
   <si>
     <t>Comment</t>
   </si>
@@ -793,6 +793,18 @@
   </si>
   <si>
     <t>Passives.SchLib</t>
+  </si>
+  <si>
+    <t>Dielectric</t>
+  </si>
+  <si>
+    <t>C0G</t>
+  </si>
+  <si>
+    <t>X7R</t>
+  </si>
+  <si>
+    <t>X5R</t>
   </si>
 </sst>
 </file>
@@ -838,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -849,15 +861,16 @@
     <col min="3" max="3" width="14.28515625" customWidth="true"/>
     <col min="4" max="4" width="6.28515625" customWidth="true"/>
     <col min="5" max="5" width="9.85546875" customWidth="true"/>
-    <col min="6" max="6" width="8" customWidth="true"/>
-    <col min="7" max="7" width="36.28515625" customWidth="true"/>
-    <col min="8" max="8" width="26.28515625" customWidth="true"/>
-    <col min="9" max="9" width="10" customWidth="true"/>
-    <col min="10" max="10" width="21.7109375" customWidth="true"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true"/>
-    <col min="12" max="12" width="12.85546875" customWidth="true"/>
-    <col min="13" max="13" width="14.85546875" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="9.5703125" customWidth="true"/>
+    <col min="7" max="7" width="8" customWidth="true"/>
+    <col min="8" max="8" width="36.28515625" customWidth="true"/>
+    <col min="9" max="9" width="26.28515625" customWidth="true"/>
+    <col min="10" max="10" width="10" customWidth="true"/>
+    <col min="11" max="11" width="21.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.5703125" customWidth="true"/>
+    <col min="13" max="13" width="12.85546875" customWidth="true"/>
+    <col min="14" max="14" width="14.85546875" customWidth="true"/>
+    <col min="15" max="15" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -877,30 +890,33 @@
         <v>133</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>223</v>
       </c>
     </row>
@@ -921,30 +937,33 @@
         <v>135</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N2" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -965,30 +984,33 @@
         <v>135</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J3" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L3" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N3" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1009,30 +1031,33 @@
         <v>135</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J4" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L4" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N4" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1053,30 +1078,33 @@
         <v>135</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J5" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L5" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N5" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1097,30 +1125,33 @@
         <v>135</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J6" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L6" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N6" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1141,30 +1172,33 @@
         <v>135</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J7" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L7" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N7" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1185,30 +1219,33 @@
         <v>135</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J8" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L8" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N8" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1229,30 +1266,33 @@
         <v>135</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L9" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N9" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1273,30 +1313,33 @@
         <v>135</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J10" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L10" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N10" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1317,30 +1360,33 @@
         <v>135</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J11" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L11" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N11" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1361,30 +1407,33 @@
         <v>134</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L12" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N12" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1405,30 +1454,33 @@
         <v>134</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J13" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L13" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N13" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O13" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1449,30 +1501,33 @@
         <v>135</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L14" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N14" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1493,30 +1548,33 @@
         <v>134</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J15" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L15" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N15" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O15" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1537,30 +1595,33 @@
         <v>134</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J16" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L16" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N16" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1581,30 +1642,33 @@
         <v>134</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G17" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J17" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L17" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N17" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1625,30 +1689,33 @@
         <v>134</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J18" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L18" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N18" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O18" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1669,30 +1736,33 @@
         <v>134</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G19" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L19" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N19" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O19" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1713,30 +1783,33 @@
         <v>134</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G20" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L20" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N20" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O20" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1757,30 +1830,33 @@
         <v>134</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G21" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J21" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L21" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N21" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O21" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1801,30 +1877,33 @@
         <v>134</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J22" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L22" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N22" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O22" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1845,30 +1924,33 @@
         <v>134</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G23" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J23" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L23" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N23" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O23" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1889,30 +1971,33 @@
         <v>134</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G24" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J24" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L24" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N24" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O24" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1933,30 +2018,33 @@
         <v>134</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G25" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="I25" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L25" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N25" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O25" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -1977,30 +2065,33 @@
         <v>134</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="G26" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="I26" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J26" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L26" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N26" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2021,30 +2112,33 @@
         <v>134</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="H27" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="I27" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J27" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L27" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N27" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2065,30 +2159,33 @@
         <v>134</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="H28" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="I28" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J28" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L28" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N28" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O28" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2109,30 +2206,33 @@
         <v>134</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="G29" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="I29" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J29" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L29" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N29" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2153,30 +2253,33 @@
         <v>134</v>
       </c>
       <c r="F30" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="H30" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="I30" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J30" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K30" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L30" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N30" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2197,30 +2300,33 @@
         <v>134</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="H31" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="I31" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J31" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L31" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N31" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2241,30 +2347,33 @@
         <v>134</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="I32" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J32" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L32" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N32" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2285,30 +2394,33 @@
         <v>136</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="I33" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J33" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L33" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N33" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" s="0" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2329,30 +2441,33 @@
         <v>136</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="H34" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="I34" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="J34" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="L34" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="N34" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" s="0" t="s">
         <v>259</v>
       </c>
     </row>
